--- a/biology/Histoire de la zoologie et de la botanique/Jean_Armand_Isidore_Pancher/Jean_Armand_Isidore_Pancher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Armand_Isidore_Pancher/Jean_Armand_Isidore_Pancher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Armand Isidore Pancher  (1814-1877) est un botaniste et explorateur français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il arrive en 1857 en Nouvelle-Calédonie et y meurt le 8 mars 1877 entre La Foa et Moindou[1], dans la baie d'Uaraï (près du fort Teremba).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il arrive en 1857 en Nouvelle-Calédonie et y meurt le 8 mars 1877 entre La Foa et Moindou, dans la baie d'Uaraï (près du fort Teremba).
 Il a contribué, par ses explorations et par les collections qu'il a constituées, à la découverte d'un nombre important d'espèces de la flore en Nouvelle-Calédonie et en Polynésie française.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec Hippolyte Sebert - Notice sur les bois de la Nouvelle-Calédonie suivie de Considérations générales sur les propriétés mécaniques des bois et sur les procédés employés pour les mesurer. Paris - Revue Maritime et Coloniale, 1873 et 1874</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Quelques taxons qui lui ont été dédiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les taxons végétaux suivants lui ont été dédiés :
 un genre de la famille des Cunoniacées :
